--- a/stylometry .xlsx
+++ b/stylometry .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="3180" windowWidth="33600" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="580" windowWidth="33600" windowHeight="19180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>keyword</t>
   </si>
@@ -63,16 +63,80 @@
   </si>
   <si>
     <t>breitbart-news</t>
+  </si>
+  <si>
+    <t>the-washington-post</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Sbar</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>Nnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Prp</t>
+  </si>
+  <si>
+    <t>Wrb</t>
+  </si>
+  <si>
+    <t>JjJj</t>
+  </si>
+  <si>
+    <t>nyt-times</t>
+  </si>
+  <si>
+    <t>wapo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,14 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,18 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -443,7 +513,7 @@
         <v>11627</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -474,7 +544,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -505,7 +575,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -534,6 +604,260 @@
       </c>
       <c r="I5" s="1">
         <v>29524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>421</v>
+      </c>
+      <c r="E6">
+        <f>D6/I6</f>
+        <v>0.90343347639484983</v>
+      </c>
+      <c r="F6" s="1">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6/I6</f>
+        <v>0.27038626609442062</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7504</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E12" si="0">D9/I9</f>
+        <v>0.97101449275362317</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1774</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G12" si="1">F9/I9</f>
+        <v>0.22955486542443065</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>19698</v>
+      </c>
+      <c r="E13">
+        <f>D13/I13</f>
+        <v>0.98234590065828842</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5310</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F13/I13</f>
+        <v>0.26481149012567323</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>9595</v>
+      </c>
+      <c r="C16">
+        <v>9214</v>
+      </c>
+      <c r="D16">
+        <v>2205</v>
+      </c>
+      <c r="E16">
+        <v>26251</v>
+      </c>
+      <c r="F16">
+        <v>118915</v>
+      </c>
+      <c r="G16">
+        <v>47325</v>
+      </c>
+      <c r="H16">
+        <v>33671</v>
+      </c>
+      <c r="I16">
+        <v>57754</v>
+      </c>
+      <c r="J16">
+        <v>675</v>
+      </c>
+      <c r="K16">
+        <v>23405</v>
+      </c>
+      <c r="L16">
+        <v>10542</v>
+      </c>
+      <c r="M16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>20052</v>
+      </c>
+      <c r="C17">
+        <v>19698</v>
+      </c>
+      <c r="D17">
+        <v>5311</v>
+      </c>
+      <c r="E17">
+        <v>50684</v>
+      </c>
+      <c r="F17">
+        <v>231730</v>
+      </c>
+      <c r="G17">
+        <v>102867</v>
+      </c>
+      <c r="H17">
+        <v>59619</v>
+      </c>
+      <c r="I17">
+        <v>123581</v>
+      </c>
+      <c r="J17">
+        <v>1792</v>
+      </c>
+      <c r="K17">
+        <v>47579</v>
+      </c>
+      <c r="L17">
+        <v>22091</v>
+      </c>
+      <c r="M17">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
